--- a/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
+++ b/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shell\Desktop\ard\ardsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA24F9A-DD07-4FBC-9EC9-76EEEE5E148A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151E59C-1402-4230-ADB5-30ACF21870FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>area</t>
   </si>
   <si>
-    <t>入院当时评价病情（轻／普通／重／危重）</t>
-  </si>
-  <si>
     <t>rysbqpg</t>
   </si>
   <si>
@@ -970,6 +967,95 @@
   </si>
   <si>
     <t>tsy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入院当时评价病情（轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>mild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／普通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>serious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／危重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>dangerous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +1066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1057,8 +1143,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1273,11 +1385,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1285,21 +1402,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1577,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.649999999999999"/>
@@ -1620,7 +1738,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.399999999999999">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1646,7 +1764,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.399999999999999">
-      <c r="A3" s="52"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1788,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.399999999999999">
-      <c r="A4" s="52"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1694,7 +1812,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.05" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1836,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.399999999999999">
-      <c r="A6" s="52"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1860,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.399999999999999">
-      <c r="A7" s="52"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1766,7 +1884,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.399999999999999">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1908,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.399999999999999">
-      <c r="A9" s="52"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
@@ -1814,268 +1932,269 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.399999999999999">
-      <c r="A10" s="52"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.399999999999999">
+      <c r="A11" s="62"/>
+      <c r="B11" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.399999999999999">
+      <c r="A12" s="62"/>
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.399999999999999">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="I11" s="61"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.399999999999999">
-      <c r="A12" s="52"/>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.399999999999999">
+      <c r="A13" s="62"/>
+      <c r="B13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.399999999999999">
-      <c r="A13" s="52"/>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>34</v>
-      </c>
       <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.399999999999999">
+      <c r="A14" s="62"/>
+      <c r="B14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.399999999999999">
-      <c r="A14" s="52"/>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.399999999999999">
+      <c r="A15" s="62"/>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.399999999999999">
-      <c r="A15" s="52"/>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.399999999999999">
+      <c r="A16" s="62"/>
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.399999999999999">
-      <c r="A16" s="52"/>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.399999999999999">
+      <c r="A17" s="62"/>
+      <c r="B17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.399999999999999">
-      <c r="A17" s="52"/>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.05" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="25" t="s">
+      <c r="C18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="27" t="s">
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="19.05" customHeight="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.399999999999999">
+      <c r="A20" s="62"/>
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.399999999999999">
-      <c r="A20" s="52"/>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.399999999999999">
+      <c r="A21" s="62"/>
+      <c r="B21" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.399999999999999">
-      <c r="A21" s="52"/>
-      <c r="B21" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -2085,43 +2204,43 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.399999999999999">
+      <c r="A22" s="62"/>
+      <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.399999999999999">
-      <c r="A22" s="52"/>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.399999999999999">
+      <c r="A23" s="62"/>
+      <c r="B23" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.399999999999999">
-      <c r="A23" s="52"/>
-      <c r="B23" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -2131,328 +2250,328 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.399999999999999">
+      <c r="A24" s="62"/>
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.399999999999999">
-      <c r="A24" s="52"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.399999999999999">
+      <c r="A25" s="62"/>
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18.399999999999999">
-      <c r="A25" s="52"/>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1">
+      <c r="A26" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="B26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.399999999999999">
+      <c r="A27" s="58"/>
+      <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.399999999999999">
+      <c r="A28" s="58"/>
+      <c r="B28" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.399999999999999">
+      <c r="A29" s="58"/>
+      <c r="B29" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.399999999999999">
+      <c r="A30" s="58"/>
+      <c r="B30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.399999999999999">
+      <c r="A31" s="58"/>
+      <c r="B31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18.399999999999999">
+      <c r="A32" s="59"/>
+      <c r="B32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A33" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A34" s="59"/>
+      <c r="B34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.399999999999999">
-      <c r="A27" s="53"/>
-      <c r="B27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.399999999999999">
-      <c r="A28" s="53"/>
-      <c r="B28" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.399999999999999">
-      <c r="A29" s="53"/>
-      <c r="B29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18.399999999999999">
-      <c r="A30" s="53"/>
-      <c r="B30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18.399999999999999">
-      <c r="A31" s="53"/>
-      <c r="B31" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18.399999999999999">
-      <c r="A32" s="54"/>
-      <c r="B32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A33" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A34" s="54"/>
-      <c r="B34" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A35" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="D35" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="E35" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="F35" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="G35" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.399999999999999">
       <c r="A36" s="56"/>
       <c r="B36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="E36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
@@ -2461,290 +2580,290 @@
     <row r="37" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A37" s="56"/>
       <c r="B37" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="E37" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="G37" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.399999999999999">
+      <c r="A38" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.399999999999999">
+      <c r="A39" s="58"/>
+      <c r="B39" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.399999999999999">
+      <c r="A40" s="58"/>
+      <c r="B40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.399999999999999">
+      <c r="A41" s="58"/>
+      <c r="B41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.399999999999999">
+      <c r="A42" s="58"/>
+      <c r="B42" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.399999999999999">
+      <c r="A44" s="58"/>
+      <c r="B44" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" customHeight="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A46" s="58"/>
+      <c r="B46" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.399999999999999">
-      <c r="A38" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="6" t="s">
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="16.05" customHeight="1">
+      <c r="A47" s="59"/>
+      <c r="B47" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.399999999999999">
-      <c r="A39" s="53"/>
-      <c r="B39" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.399999999999999">
-      <c r="A40" s="53"/>
-      <c r="B40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.399999999999999">
-      <c r="A41" s="53"/>
-      <c r="B41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.399999999999999">
-      <c r="A42" s="53"/>
-      <c r="B42" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.399999999999999">
-      <c r="A44" s="53"/>
-      <c r="B44" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.399999999999999">
       <c r="A48" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="C48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="G48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>13</v>
@@ -2753,22 +2872,22 @@
     <row r="49" spans="1:8" ht="18.399999999999999">
       <c r="A49" s="56"/>
       <c r="B49" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="G49" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>13</v>
@@ -2777,22 +2896,22 @@
     <row r="50" spans="1:8" ht="18.399999999999999">
       <c r="A50" s="56"/>
       <c r="B50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="G50" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>13</v>
@@ -2801,22 +2920,22 @@
     <row r="51" spans="1:8" ht="18.399999999999999">
       <c r="A51" s="56"/>
       <c r="B51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>13</v>
@@ -2825,22 +2944,22 @@
     <row r="52" spans="1:8" ht="18.399999999999999">
       <c r="A52" s="56"/>
       <c r="B52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>13</v>
@@ -2849,22 +2968,22 @@
     <row r="53" spans="1:8" ht="19.05" customHeight="1">
       <c r="A53" s="56"/>
       <c r="B53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>13</v>
@@ -2873,1331 +2992,1331 @@
     <row r="54" spans="1:8" ht="18.399999999999999">
       <c r="A54" s="56"/>
       <c r="B54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.399999999999999">
+      <c r="A55" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.399999999999999">
-      <c r="A55" s="55" t="s">
+      <c r="B55" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A56" s="58"/>
+      <c r="B56" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A56" s="53"/>
-      <c r="B56" s="36" t="s">
+      <c r="C56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="43" t="s">
+      <c r="G56" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.399999999999999">
+      <c r="A57" s="58"/>
+      <c r="B57" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18.399999999999999">
-      <c r="A57" s="53"/>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="23" t="s">
+      <c r="G57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.399999999999999">
+      <c r="A58" s="58"/>
+      <c r="B58" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18.399999999999999">
-      <c r="A58" s="53"/>
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="G58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.399999999999999">
+      <c r="A59" s="58"/>
+      <c r="B59" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18.399999999999999">
-      <c r="A59" s="53"/>
-      <c r="B59" s="20" t="s">
+      <c r="C59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="20" t="s">
+      <c r="G59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.399999999999999">
+      <c r="A60" s="58"/>
+      <c r="B60" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18.399999999999999">
-      <c r="A60" s="53"/>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="44" t="s">
+      <c r="G60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A61" s="58"/>
+      <c r="B61" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A61" s="53"/>
-      <c r="B61" s="45" t="s">
+      <c r="C61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="36" t="s">
+      <c r="G61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A62" s="58"/>
+      <c r="B62" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G61" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A62" s="53"/>
-      <c r="B62" s="36" t="s">
+      <c r="C62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="36" t="s">
+      <c r="G62" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.399999999999999">
+      <c r="A63" s="58"/>
+      <c r="B63" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="G62" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.399999999999999">
-      <c r="A63" s="53"/>
-      <c r="B63" s="20" t="s">
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="20" t="s">
+      <c r="G63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A64" s="58"/>
+      <c r="B64" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A64" s="53"/>
-      <c r="B64" s="36" t="s">
+      <c r="C64" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="43" t="s">
+      <c r="G64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A65" s="58"/>
+      <c r="B65" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A65" s="53"/>
-      <c r="B65" s="36" t="s">
+      <c r="C65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="36" t="s">
+      <c r="G65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A66" s="58"/>
+      <c r="B66" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G65" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A66" s="53"/>
-      <c r="B66" s="36" t="s">
+      <c r="C66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="36" t="s">
+      <c r="G66" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18.399999999999999">
+      <c r="A67" s="58"/>
+      <c r="B67" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G66" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="18.399999999999999">
-      <c r="A67" s="53"/>
-      <c r="B67" s="20" t="s">
+      <c r="C67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="20" t="s">
+      <c r="G67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.399999999999999">
+      <c r="A68" s="58"/>
+      <c r="B68" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18.399999999999999">
-      <c r="A68" s="53"/>
-      <c r="B68" s="20" t="s">
+      <c r="C68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="23" t="s">
+      <c r="G68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.399999999999999">
+      <c r="A69" s="58"/>
+      <c r="B69" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.399999999999999">
-      <c r="A69" s="53"/>
-      <c r="B69" s="20" t="s">
+      <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="23" t="s">
+      <c r="G69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.399999999999999">
+      <c r="A70" s="58"/>
+      <c r="B70" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.399999999999999">
-      <c r="A70" s="53"/>
-      <c r="B70" s="20" t="s">
+      <c r="C70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="23" t="s">
+      <c r="G70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.399999999999999">
+      <c r="A71" s="58"/>
+      <c r="B71" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18.399999999999999">
-      <c r="A71" s="53"/>
-      <c r="B71" s="46" t="s">
+      <c r="C71" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="D71" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="47" t="s">
+      <c r="E71" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="G71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.399999999999999">
+      <c r="A72" s="59"/>
+      <c r="B72" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18.399999999999999">
-      <c r="A72" s="54"/>
-      <c r="B72" s="20" t="s">
+      <c r="C72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="20" t="s">
+      <c r="G72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A73" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A73" s="55" t="s">
+      <c r="B73" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="C73" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="36" t="s">
+      <c r="G73" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A74" s="58"/>
+      <c r="B74" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A74" s="53"/>
-      <c r="B74" s="36" t="s">
+      <c r="C74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="43" t="s">
+      <c r="G74" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A75" s="58"/>
+      <c r="B75" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="G74" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="20" t="s">
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="20" t="s">
+      <c r="G75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.399999999999999">
+      <c r="A76" s="58"/>
+      <c r="B76" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="18.399999999999999">
-      <c r="A76" s="53"/>
-      <c r="B76" s="20" t="s">
+      <c r="C76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="23" t="s">
+      <c r="G76" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.399999999999999">
+      <c r="A77" s="58"/>
+      <c r="B77" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18.399999999999999">
-      <c r="A77" s="53"/>
-      <c r="B77" s="20" t="s">
+      <c r="C77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="20" t="s">
+      <c r="G77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.399999999999999">
+      <c r="A78" s="58"/>
+      <c r="B78" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="18.399999999999999">
-      <c r="A78" s="53"/>
-      <c r="B78" s="20" t="s">
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="20" t="s">
+      <c r="G78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A79" s="58"/>
+      <c r="B79" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A79" s="53"/>
-      <c r="B79" s="36" t="s">
+      <c r="C79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="36" t="s">
+      <c r="G79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.399999999999999">
+      <c r="A80" s="58"/>
+      <c r="B80" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="18.399999999999999">
-      <c r="A80" s="53"/>
-      <c r="B80" s="20" t="s">
+      <c r="C80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="23" t="s">
+      <c r="G80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18.399999999999999">
+      <c r="A81" s="58"/>
+      <c r="B81" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="18.399999999999999">
-      <c r="A81" s="53"/>
-      <c r="B81" s="20" t="s">
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="23" t="s">
+      <c r="G81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.399999999999999">
+      <c r="A82" s="58"/>
+      <c r="B82" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="18.399999999999999">
-      <c r="A82" s="53"/>
-      <c r="B82" s="20" t="s">
+      <c r="C82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="20" t="s">
+      <c r="G82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.399999999999999">
+      <c r="A83" s="58"/>
+      <c r="B83" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="18.399999999999999">
-      <c r="A83" s="53"/>
-      <c r="B83" s="20" t="s">
+      <c r="C83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="20" t="s">
+      <c r="G83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A84" s="58"/>
+      <c r="B84" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="22" t="s">
+      <c r="C84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="23" t="s">
+      <c r="G84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A85" s="58"/>
+      <c r="B85" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A85" s="53"/>
-      <c r="B85" s="25" t="s">
+      <c r="C85" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="25" t="s">
+      <c r="G85" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A86" s="58"/>
+      <c r="B86" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A86" s="53"/>
-      <c r="B86" s="25" t="s">
+      <c r="C86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="25" t="s">
+      <c r="G86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A87" s="58"/>
+      <c r="B87" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="G86" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A87" s="53"/>
-      <c r="B87" s="25" t="s">
+      <c r="C87" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="25" t="s">
+      <c r="G87" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A88" s="58"/>
+      <c r="B88" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="G87" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A88" s="53"/>
-      <c r="B88" s="25" t="s">
+      <c r="C88" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="25" t="s">
+      <c r="G88" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.399999999999999">
+      <c r="A89" s="58"/>
+      <c r="B89" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G88" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="18.399999999999999">
-      <c r="A89" s="53"/>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A90" s="58"/>
+      <c r="B90" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A90" s="53"/>
-      <c r="B90" s="41" t="s">
+      <c r="C90" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="41" t="s">
+      <c r="G90" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18.399999999999999">
+      <c r="A91" s="59"/>
+      <c r="B91" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G90" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="18.399999999999999">
-      <c r="A91" s="54"/>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.399999999999999">
+      <c r="A92" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="18.399999999999999">
-      <c r="A92" s="55" t="s">
+      <c r="B92" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="G92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.399999999999999">
+      <c r="A93" s="58"/>
+      <c r="B93" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="18.399999999999999">
-      <c r="A93" s="53"/>
-      <c r="B93" s="24" t="s">
+      <c r="C93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="23" t="s">
+      <c r="G93" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.399999999999999">
+      <c r="A94" s="58"/>
+      <c r="B94" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="18.399999999999999">
-      <c r="A94" s="53"/>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="23" t="s">
+      <c r="G94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.399999999999999">
+      <c r="A95" s="58"/>
+      <c r="B95" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G94" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18.399999999999999">
-      <c r="A95" s="53"/>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.399999999999999">
+      <c r="A96" s="58"/>
+      <c r="B96" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="18.399999999999999">
-      <c r="A96" s="53"/>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18.399999999999999">
+      <c r="A97" s="59"/>
+      <c r="B97" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="18.399999999999999">
-      <c r="A97" s="54"/>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18.399999999999999">
+      <c r="A98" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="18.399999999999999">
-      <c r="A98" s="57" t="s">
+      <c r="B98" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.399999999999999">
+      <c r="A99" s="60"/>
+      <c r="B99" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="18.399999999999999">
-      <c r="A99" s="57"/>
-      <c r="B99" s="29" t="s">
+      <c r="C99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="5" t="s">
+      <c r="G99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A100" s="60"/>
+      <c r="B100" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A100" s="57"/>
-      <c r="B100" s="25" t="s">
+      <c r="C100" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C100" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="25" t="s">
+      <c r="G100" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
+      <c r="A101" s="60"/>
+      <c r="B101" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G100" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
-      <c r="A101" s="57"/>
-      <c r="B101" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="59" t="s">
+      <c r="C101" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="G101" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I101" s="61"/>
+        <v>313</v>
+      </c>
+      <c r="G101" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="53"/>
     </row>
     <row r="102" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A102" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="C102" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="D102" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="E102" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="F102" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="F102" s="25" t="s">
-        <v>286</v>
-      </c>
       <c r="G102" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A103" s="56"/>
       <c r="B103" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="D103" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="E103" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="F103" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F103" s="25" t="s">
-        <v>291</v>
-      </c>
       <c r="G103" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A104" s="56"/>
       <c r="B104" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="D104" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="E104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>295</v>
-      </c>
       <c r="G104" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" ht="19.05" customHeight="1">
       <c r="A105" s="56"/>
       <c r="B105" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="D105" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="D105" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>298</v>
-      </c>
       <c r="G105" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A106" s="56"/>
       <c r="B106" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="D106" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D106" s="34" t="s">
+      <c r="E106" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E106" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>302</v>
-      </c>
       <c r="G106" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" ht="18.399999999999999">
       <c r="A107" s="56"/>
       <c r="B107" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="D107" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D107" s="34" t="s">
+      <c r="E107" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E107" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F107" s="25" t="s">
-        <v>306</v>
-      </c>
       <c r="G107" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="18.399999999999999">
       <c r="A108" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="G108" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>13</v>
@@ -4208,17 +4327,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A102:A107"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A72"/>
     <mergeCell ref="A73:A91"/>
     <mergeCell ref="A92:A97"/>
     <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
+++ b/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
@@ -1045,12 +1045,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,24 +1085,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1127,6 +1109,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1134,7 +1154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,7 +1162,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,14 +1238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,108 +1246,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1316,31 +1292,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,55 +1358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,25 +1394,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,49 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,39 +1571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1642,8 +1585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,6 +1606,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1677,166 +1668,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1874,19 +1850,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,7 +1882,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1921,7 +1897,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1932,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1953,7 +1932,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1961,12 +1940,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -2291,7 +2269,7 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B30" sqref="B30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
@@ -2549,7 +2527,7 @@
       <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" ht="18" spans="1:9">
       <c r="A11" s="11"/>
@@ -2568,7 +2546,7 @@
       <c r="H11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="60"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" ht="18" spans="1:8">
       <c r="A12" s="11"/>
@@ -3002,19 +2980,19 @@
     </row>
     <row r="30" ht="18" spans="1:8">
       <c r="A30" s="14"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="43" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -3026,19 +3004,19 @@
     </row>
     <row r="31" ht="18" spans="1:8">
       <c r="A31" s="14"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="41" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="45" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -3049,7 +3027,7 @@
       </c>
     </row>
     <row r="32" ht="18" spans="1:8">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="33" t="s">
         <v>94</v>
       </c>
@@ -3073,10 +3051,10 @@
       </c>
     </row>
     <row r="33" ht="19.05" customHeight="1" spans="1:8">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3099,17 +3077,17 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F34" s="34" t="s">
@@ -3132,13 +3110,13 @@
       <c r="C35" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="51" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="35" t="s">
@@ -3156,7 +3134,7 @@
       <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="52" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -3180,7 +3158,7 @@
       <c r="C37" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="49" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="35" t="s">
@@ -3197,7 +3175,7 @@
       </c>
     </row>
     <row r="38" ht="18" spans="1:8">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3224,7 +3202,7 @@
     </row>
     <row r="39" ht="18" spans="1:8">
       <c r="A39" s="14"/>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -3305,7 +3283,7 @@
       <c r="D42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="53" t="s">
         <v>145</v>
       </c>
       <c r="F42" s="32" t="s">
@@ -3326,7 +3304,7 @@
       <c r="C43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="54" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -3347,13 +3325,13 @@
       <c r="B44" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="53" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="30" t="s">
@@ -3371,13 +3349,13 @@
       <c r="B45" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="53" t="s">
         <v>107</v>
       </c>
       <c r="F45" s="30" t="s">
@@ -3398,13 +3376,13 @@
       <c r="C46" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="49" t="s">
         <v>162</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="56" t="s">
         <v>164</v>
       </c>
       <c r="G46" s="35" t="s">
@@ -3415,20 +3393,20 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.05" customHeight="1" spans="1:8">
-      <c r="A47" s="45"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="57" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="49" t="s">
         <v>167</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="56" t="s">
         <v>168</v>
       </c>
       <c r="G47" s="35" t="s">
@@ -3609,7 +3587,7 @@
       </c>
     </row>
     <row r="55" ht="18" spans="1:8">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -3636,7 +3614,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A56" s="14"/>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="51" t="s">
         <v>187</v>
       </c>
       <c r="C56" s="35" t="s">
@@ -3648,7 +3626,7 @@
       <c r="E56" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="58" t="s">
         <v>188</v>
       </c>
       <c r="G56" s="35" t="s">
@@ -3744,7 +3722,7 @@
       <c r="E60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="F60" s="59" t="s">
         <v>196</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -3768,7 +3746,7 @@
       <c r="E61" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" s="51" t="s">
         <v>198</v>
       </c>
       <c r="G61" s="35" t="s">
@@ -3780,7 +3758,7 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A62" s="14"/>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="51" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="35" t="s">
@@ -3792,7 +3770,7 @@
       <c r="E62" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="51" t="s">
         <v>200</v>
       </c>
       <c r="G62" s="35" t="s">
@@ -3828,7 +3806,7 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A64" s="14"/>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="51" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="35" t="s">
@@ -3840,7 +3818,7 @@
       <c r="E64" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="57" t="s">
+      <c r="F64" s="58" t="s">
         <v>204</v>
       </c>
       <c r="G64" s="35" t="s">
@@ -3852,7 +3830,7 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A65" s="14"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="51" t="s">
         <v>205</v>
       </c>
       <c r="C65" s="35" t="s">
@@ -3864,7 +3842,7 @@
       <c r="E65" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="51" t="s">
         <v>206</v>
       </c>
       <c r="G65" s="35" t="s">
@@ -3876,7 +3854,7 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A66" s="14"/>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="51" t="s">
         <v>207</v>
       </c>
       <c r="C66" s="35" t="s">
@@ -3888,7 +3866,7 @@
       <c r="E66" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="F66" s="51" t="s">
         <v>208</v>
       </c>
       <c r="G66" s="35" t="s">
@@ -3996,19 +3974,19 @@
     </row>
     <row r="71" ht="18" spans="1:8">
       <c r="A71" s="14"/>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="62" t="s">
         <v>217</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="63" t="s">
         <v>219</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="64" t="s">
         <v>221</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -4019,7 +3997,7 @@
       </c>
     </row>
     <row r="72" ht="18" spans="1:8">
-      <c r="A72" s="45"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="30" t="s">
         <v>222</v>
       </c>
@@ -4043,10 +4021,10 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="51" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="35" t="s">
@@ -4058,7 +4036,7 @@
       <c r="E73" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F73" s="51" t="s">
         <v>226</v>
       </c>
       <c r="G73" s="35" t="s">
@@ -4070,7 +4048,7 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A74" s="14"/>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="51" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="35" t="s">
@@ -4082,7 +4060,7 @@
       <c r="E74" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="57" t="s">
+      <c r="F74" s="58" t="s">
         <v>228</v>
       </c>
       <c r="G74" s="35" t="s">
@@ -4190,7 +4168,7 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A79" s="14"/>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="51" t="s">
         <v>237</v>
       </c>
       <c r="C79" s="35" t="s">
@@ -4202,7 +4180,7 @@
       <c r="E79" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="51" t="s">
         <v>238</v>
       </c>
       <c r="G79" s="35" t="s">
@@ -4454,7 +4432,7 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A90" s="14"/>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="56" t="s">
         <v>259</v>
       </c>
       <c r="C90" s="35" t="s">
@@ -4466,7 +4444,7 @@
       <c r="E90" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="56" t="s">
         <v>260</v>
       </c>
       <c r="G90" s="35" t="s">
@@ -4477,7 +4455,7 @@
       </c>
     </row>
     <row r="91" ht="18" spans="1:8">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="5" t="s">
         <v>261</v>
       </c>
@@ -4501,7 +4479,7 @@
       </c>
     </row>
     <row r="92" ht="18" spans="1:8">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="47" t="s">
         <v>263</v>
       </c>
       <c r="B92" s="33" t="s">
@@ -4552,7 +4530,7 @@
     </row>
     <row r="94" ht="18" spans="1:8">
       <c r="A94" s="14"/>
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="65" t="s">
         <v>268</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -4623,7 +4601,7 @@
       </c>
     </row>
     <row r="97" ht="18" spans="1:8">
-      <c r="A97" s="45"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="5" t="s">
         <v>274</v>
       </c>
@@ -4647,7 +4625,7 @@
       </c>
     </row>
     <row r="98" ht="18" spans="1:8">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="48" t="s">
         <v>276</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4673,7 +4651,7 @@
       </c>
     </row>
     <row r="99" ht="18" spans="1:8">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="38" t="s">
         <v>279</v>
       </c>
@@ -4697,7 +4675,7 @@
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="34" t="s">
         <v>281</v>
       </c>
@@ -4721,7 +4699,7 @@
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="18" spans="1:9">
-      <c r="A101" s="47"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="38" t="s">
         <v>283</v>
       </c>
@@ -4740,10 +4718,10 @@
       <c r="G101" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H101" s="65" t="s">
+      <c r="H101" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I101" s="60"/>
+      <c r="I101" s="61"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A102" s="5" t="s">
@@ -4755,10 +4733,10 @@
       <c r="C102" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="48" t="s">
+      <c r="D102" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="E102" s="49" t="s">
+      <c r="E102" s="50" t="s">
         <v>289</v>
       </c>
       <c r="F102" s="34" t="s">
@@ -4803,7 +4781,7 @@
       <c r="C104" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="49" t="s">
         <v>298</v>
       </c>
       <c r="E104" s="35" t="s">
@@ -4827,7 +4805,7 @@
       <c r="C105" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="48" t="s">
+      <c r="D105" s="49" t="s">
         <v>298</v>
       </c>
       <c r="E105" s="35" t="s">
@@ -4851,7 +4829,7 @@
       <c r="C106" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="D106" s="48" t="s">
+      <c r="D106" s="49" t="s">
         <v>305</v>
       </c>
       <c r="E106" s="35" t="s">
@@ -4875,7 +4853,7 @@
       <c r="C107" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="49" t="s">
         <v>309</v>
       </c>
       <c r="E107" s="35" t="s">

--- a/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
+++ b/陈永平老师课题参数表（不明原因肺炎辅助诊断系统多中心实证研究）-V2.2020.9.6.xlsx
@@ -967,7 +967,7 @@
     <t>U/ml</t>
   </si>
   <si>
-    <t>il-2</t>
+    <t>il2</t>
   </si>
   <si>
     <t>白介素6</t>
@@ -982,7 +982,7 @@
     <t>pg/ml</t>
   </si>
   <si>
-    <t>il-6</t>
+    <t>il6</t>
   </si>
   <si>
     <t>白介素17</t>
@@ -994,7 +994,7 @@
     <t>根据不同的测定方法，实验室可酌情设定参考值。</t>
   </si>
   <si>
-    <t>il-17</t>
+    <t>il17</t>
   </si>
   <si>
     <t>肿瘤坏死因子a</t>
@@ -1003,7 +1003,7 @@
     <t>TNF-a</t>
   </si>
   <si>
-    <t>tnf-a</t>
+    <t>tnfa</t>
   </si>
   <si>
     <t>CD4-T细胞百分数</t>
@@ -1044,11 +1044,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1122,6 +1122,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1147,14 +1154,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,7 +1176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,9 +1190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,15 +1213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,7 +1245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,14 +1253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,7 +1292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,25 +1310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1346,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,25 +1382,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,37 +1448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,37 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,13 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,11 +1573,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,21 +1634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1630,26 +1643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,10 +1674,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1686,7 +1686,7 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1695,128 +1695,128 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1912,6 +1912,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1945,7 +1948,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2268,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:F31"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
@@ -2527,7 +2535,7 @@
       <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" ht="18" spans="1:9">
       <c r="A11" s="11"/>
@@ -2546,7 +2554,7 @@
       <c r="H11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" ht="18" spans="1:8">
       <c r="A12" s="11"/>
@@ -3101,7 +3109,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="34" t="s">
@@ -3116,7 +3124,7 @@
       <c r="E35" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="52" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="35" t="s">
@@ -3134,7 +3142,7 @@
       <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="53" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -3283,7 +3291,7 @@
       <c r="D42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="54" t="s">
         <v>145</v>
       </c>
       <c r="F42" s="32" t="s">
@@ -3304,7 +3312,7 @@
       <c r="C43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="55" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -3325,13 +3333,13 @@
       <c r="B44" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="54" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="30" t="s">
@@ -3349,13 +3357,13 @@
       <c r="B45" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="54" t="s">
         <v>107</v>
       </c>
       <c r="F45" s="30" t="s">
@@ -3382,7 +3390,7 @@
       <c r="E46" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="57" t="s">
         <v>164</v>
       </c>
       <c r="G46" s="35" t="s">
@@ -3394,7 +3402,7 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="16.05" customHeight="1" spans="1:8">
       <c r="A47" s="46"/>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -3406,7 +3414,7 @@
       <c r="E47" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="57" t="s">
         <v>168</v>
       </c>
       <c r="G47" s="35" t="s">
@@ -3614,7 +3622,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A56" s="14"/>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="52" t="s">
         <v>187</v>
       </c>
       <c r="C56" s="35" t="s">
@@ -3626,7 +3634,7 @@
       <c r="E56" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="59" t="s">
         <v>188</v>
       </c>
       <c r="G56" s="35" t="s">
@@ -3722,7 +3730,7 @@
       <c r="E60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="60" t="s">
         <v>196</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -3746,7 +3754,7 @@
       <c r="E61" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="52" t="s">
         <v>198</v>
       </c>
       <c r="G61" s="35" t="s">
@@ -3758,7 +3766,7 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A62" s="14"/>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="52" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="35" t="s">
@@ -3770,7 +3778,7 @@
       <c r="E62" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="52" t="s">
         <v>200</v>
       </c>
       <c r="G62" s="35" t="s">
@@ -3806,7 +3814,7 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A64" s="14"/>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="52" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="35" t="s">
@@ -3818,7 +3826,7 @@
       <c r="E64" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="59" t="s">
         <v>204</v>
       </c>
       <c r="G64" s="35" t="s">
@@ -3830,7 +3838,7 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A65" s="14"/>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="52" t="s">
         <v>205</v>
       </c>
       <c r="C65" s="35" t="s">
@@ -3842,7 +3850,7 @@
       <c r="E65" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="52" t="s">
         <v>206</v>
       </c>
       <c r="G65" s="35" t="s">
@@ -3854,7 +3862,7 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A66" s="14"/>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="52" t="s">
         <v>207</v>
       </c>
       <c r="C66" s="35" t="s">
@@ -3866,7 +3874,7 @@
       <c r="E66" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="52" t="s">
         <v>208</v>
       </c>
       <c r="G66" s="35" t="s">
@@ -3974,19 +3982,19 @@
     </row>
     <row r="71" ht="18" spans="1:8">
       <c r="A71" s="14"/>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="63" t="s">
         <v>217</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="64" t="s">
         <v>219</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F71" s="64" t="s">
+      <c r="F71" s="65" t="s">
         <v>221</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -4024,7 +4032,7 @@
       <c r="A73" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="52" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="35" t="s">
@@ -4036,7 +4044,7 @@
       <c r="E73" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="F73" s="52" t="s">
         <v>226</v>
       </c>
       <c r="G73" s="35" t="s">
@@ -4048,7 +4056,7 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A74" s="14"/>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="52" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="35" t="s">
@@ -4060,7 +4068,7 @@
       <c r="E74" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="58" t="s">
+      <c r="F74" s="59" t="s">
         <v>228</v>
       </c>
       <c r="G74" s="35" t="s">
@@ -4168,7 +4176,7 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A79" s="14"/>
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="52" t="s">
         <v>237</v>
       </c>
       <c r="C79" s="35" t="s">
@@ -4180,7 +4188,7 @@
       <c r="E79" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="51" t="s">
+      <c r="F79" s="52" t="s">
         <v>238</v>
       </c>
       <c r="G79" s="35" t="s">
@@ -4432,7 +4440,7 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A90" s="14"/>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="57" t="s">
         <v>259</v>
       </c>
       <c r="C90" s="35" t="s">
@@ -4444,7 +4452,7 @@
       <c r="E90" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="56" t="s">
+      <c r="F90" s="57" t="s">
         <v>260</v>
       </c>
       <c r="G90" s="35" t="s">
@@ -4530,7 +4538,7 @@
     </row>
     <row r="94" ht="18" spans="1:8">
       <c r="A94" s="14"/>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="66" t="s">
         <v>268</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -4721,28 +4729,28 @@
       <c r="H101" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I101" s="61"/>
+      <c r="I101" s="62"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A102" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="49" t="s">
+      <c r="D102" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F102" s="34" t="s">
+      <c r="F102" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="G102" s="35" t="s">
+      <c r="G102" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H102" s="36" t="s">
@@ -4751,22 +4759,22 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A103" s="5"/>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="D103" s="66" t="s">
+      <c r="D103" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="F103" s="34" t="s">
+      <c r="F103" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G103" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H103" s="36" t="s">
@@ -4775,22 +4783,22 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A104" s="5"/>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="E104" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="34" t="s">
+      <c r="E104" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H104" s="36" t="s">
@@ -4799,22 +4807,22 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:8">
       <c r="A105" s="5"/>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="E105" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="34" t="s">
+      <c r="E105" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="G105" s="35" t="s">
+      <c r="G105" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H105" s="36" t="s">
@@ -4896,7 +4904,7 @@
       </c>
     </row>
     <row r="109" ht="18" spans="7:7">
-      <c r="G109" s="67"/>
+      <c r="G109" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
